--- a/asistencia.xlsx
+++ b/asistencia.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1716622924" val="1068" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1716622924" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1716622924"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1716622924"/>
+      <pm:revision xmlns:pm="smNativeData" day="1717613401" val="1068" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1717613401" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1717613401" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1717613401"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>Total</t>
   </si>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -60,7 +60,6 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="DD/MM"/>
-    <numFmt numFmtId="4" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="3">
@@ -71,7 +70,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1716622924" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1717613401" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -86,7 +85,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1716622924" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1717613401" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -102,7 +101,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1716622924" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1717613401" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -111,7 +110,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,22 +119,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1716622924" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB5B5B5"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1716622924" type="1" fgLvl="71" fgClr="00FFFFFF" bgLvl="29" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="71" fgClr="00FFFFFF" bgLvl="29" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -146,7 +134,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1716622924" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -157,13 +145,57 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1716622924" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5C5C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="64" fgClr="00FF0000" bgLvl="36" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DFF3D"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1717613401" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -179,7 +211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1716622924"/>
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
         </ext>
       </extLst>
     </border>
@@ -198,7 +230,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1716622924"/>
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
         </ext>
       </extLst>
     </border>
@@ -217,7 +249,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1716622924"/>
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
         </ext>
       </extLst>
     </border>
@@ -236,7 +268,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1716622924"/>
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
         </ext>
       </extLst>
     </border>
@@ -255,7 +287,64 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1716622924"/>
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1717613401"/>
         </ext>
       </extLst>
     </border>
@@ -263,13 +352,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -277,9 +373,14 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1716622924" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1717613401" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1717613401" count="3">
+        <pm:color name="Color 24" rgb="B5B5B5"/>
+        <pm:color name="Color 25" rgb="9EFF9E"/>
+        <pm:color name="Color 26" rgb="9EFFFF"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -541,120 +642,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <f>SUM(C3:C1048576)</f>
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <f>SUM(E3:E1048576)</f>
-        <v>13</v>
-      </c>
-      <c r="F1" s="2">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1">
         <f>E1/C1</f>
+        <v>0.777777777777777768</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>45434</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>45436</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>45437</v>
       </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1" t="n">
+      <c r="C5" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1" t="n">
+      <c r="C6" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="8" t="n">
         <v>45444</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1" t="n">
+      <c r="C7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="10" t="n">
         <v>45448</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="12" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="5" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="5" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="5" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="5" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="5" t="n">
+        <v>45462</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="5" t="n">
+        <v>45464</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="5" t="n">
+        <v>45465</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5" t="n">
+        <v>45469</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5" t="n">
+        <v>45471</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5" t="n">
+        <v>45472</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1716622924" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1717613401" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -663,14 +935,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1716622924" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1716622924" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1717613401" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1717613401" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716622924" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1717613401" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
